--- a/Documents/Command Protocol.xlsx
+++ b/Documents/Command Protocol.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20350"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D721C958-2124-4C58-82EF-23A209E03B4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691B0A83-DC10-4FF8-AAD6-88EED81D5EB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,18 +64,6 @@
     <t>*</t>
   </si>
   <si>
-    <t>speed of motor 1</t>
-  </si>
-  <si>
-    <t>direction of motor 1</t>
-  </si>
-  <si>
-    <t>speed of motor 2</t>
-  </si>
-  <si>
-    <t>direction of motor 2</t>
-  </si>
-  <si>
     <t>Parameters</t>
   </si>
   <si>
@@ -165,6 +153,18 @@
   <si>
     <t>speed of stepper
 the stepper is capable of varying speeds but implimentation only allows on or off</t>
+  </si>
+  <si>
+    <t>speed of left motor</t>
+  </si>
+  <si>
+    <t>direction of left motor</t>
+  </si>
+  <si>
+    <t>speed of right motor</t>
+  </si>
+  <si>
+    <t>direction of right motor</t>
   </si>
 </sst>
 </file>
@@ -484,102 +484,108 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -588,12 +594,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -878,7 +878,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,57 +894,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>20</v>
+      <c r="E1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>32</v>
+      <c r="C3" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
@@ -955,12 +955,12 @@
         <v>1</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="13"/>
+        <v>40</v>
+      </c>
+      <c r="F4" s="35"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
@@ -971,12 +971,12 @@
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="13"/>
+        <v>41</v>
+      </c>
+      <c r="F5" s="35"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -987,161 +987,161 @@
         <v>1</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="13"/>
+        <v>42</v>
+      </c>
+      <c r="F6" s="35"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="33" t="s">
+      <c r="A7" s="39"/>
+      <c r="B7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="36"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="37"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>31</v>
+      <c r="C8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="F9" s="44"/>
+    </row>
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="38"/>
+      <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="32">
+        <v>0</v>
+      </c>
+      <c r="D10" s="33">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="44"/>
+    </row>
+    <row r="11" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="39"/>
+      <c r="B11" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="18"/>
-    </row>
-    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="47">
-        <v>0</v>
-      </c>
-      <c r="D10" s="48">
-        <v>1</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="18"/>
-    </row>
-    <row r="11" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="36" t="s">
+      <c r="E11" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="45"/>
+    </row>
+    <row r="12" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="35" t="s">
+      <c r="B12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="41"/>
-    </row>
-    <row r="12" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="38" t="s">
+      <c r="C12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="48"/>
+    </row>
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B14" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+      <c r="B15" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="46"/>
-    </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="43" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
+      <c r="C15" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="20" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1150,12 +1150,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A13:F13"/>
     <mergeCell ref="F3:F7"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F8:F11"/>
-    <mergeCell ref="A13:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
